--- a/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9840912253347309</v>
+        <v>0.984091225334731</v>
       </c>
       <c r="D2">
         <v>1.006014274437154</v>
       </c>
       <c r="E2">
-        <v>0.9902598786364054</v>
+        <v>0.9902598786364053</v>
       </c>
       <c r="F2">
-        <v>0.9941026794807674</v>
+        <v>0.9941026794807672</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938004024915943</v>
+        <v>0.9938004024915973</v>
       </c>
       <c r="D3">
-        <v>1.01356937683739</v>
+        <v>1.013569376837392</v>
       </c>
       <c r="E3">
-        <v>0.9986726698861531</v>
+        <v>0.998672669886156</v>
       </c>
       <c r="F3">
-        <v>1.003840567473818</v>
+        <v>1.00384056747382</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042966259351326</v>
+        <v>1.042966259351327</v>
       </c>
       <c r="J3">
-        <v>1.014461513528984</v>
+        <v>1.014461513528987</v>
       </c>
       <c r="K3">
-        <v>1.024031529765883</v>
+        <v>1.024031529765885</v>
       </c>
       <c r="L3">
-        <v>1.009322562368711</v>
+        <v>1.009322562368714</v>
       </c>
       <c r="M3">
-        <v>1.014424542249497</v>
+        <v>1.0144245422495</v>
       </c>
       <c r="N3">
-        <v>1.015902165238557</v>
+        <v>1.01590216523856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,13 +503,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998316510620314</v>
+        <v>0.999831651062031</v>
       </c>
       <c r="D4">
         <v>1.018265391331014</v>
       </c>
       <c r="E4">
-        <v>1.00389938772026</v>
+        <v>1.003899387720259</v>
       </c>
       <c r="F4">
         <v>1.009898123692493</v>
@@ -521,7 +521,7 @@
         <v>1.045199683354836</v>
       </c>
       <c r="J4">
-        <v>1.01923966420318</v>
+        <v>1.019239664203179</v>
       </c>
       <c r="K4">
         <v>1.028148256150004</v>
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002311521986951</v>
+        <v>1.002311521986952</v>
       </c>
       <c r="D5">
-        <v>1.020196763528677</v>
+        <v>1.020196763528678</v>
       </c>
       <c r="E5">
-        <v>1.006048528940509</v>
+        <v>1.00604852894051</v>
       </c>
       <c r="F5">
-        <v>1.0123907724903</v>
+        <v>1.012390772490301</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.046113902269389</v>
       </c>
       <c r="J5">
-        <v>1.021202550657471</v>
+        <v>1.021202550657472</v>
       </c>
       <c r="K5">
         <v>1.02983874573201</v>
       </c>
       <c r="L5">
-        <v>1.015851714899655</v>
+        <v>1.015851714899656</v>
       </c>
       <c r="M5">
         <v>1.022121008091634</v>
       </c>
       <c r="N5">
-        <v>1.022652775412974</v>
+        <v>1.022652775412975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002724759441584</v>
+        <v>1.002724759441588</v>
       </c>
       <c r="D6">
-        <v>1.020518626198156</v>
+        <v>1.02051862619816</v>
       </c>
       <c r="E6">
-        <v>1.006406655657025</v>
+        <v>1.006406655657028</v>
       </c>
       <c r="F6">
-        <v>1.0128062526445</v>
+        <v>1.012806252644503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046266001165676</v>
+        <v>1.046266001165678</v>
       </c>
       <c r="J6">
-        <v>1.021529534487627</v>
+        <v>1.021529534487631</v>
       </c>
       <c r="K6">
-        <v>1.030120311579924</v>
+        <v>1.030120311579927</v>
       </c>
       <c r="L6">
-        <v>1.016168308216314</v>
+        <v>1.016168308216317</v>
       </c>
       <c r="M6">
-        <v>1.022494681058739</v>
+        <v>1.022494681058743</v>
       </c>
       <c r="N6">
-        <v>1.022980223597675</v>
+        <v>1.022980223597679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,10 +626,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998650004186971</v>
+        <v>0.9998650004186974</v>
       </c>
       <c r="D7">
-        <v>1.018291362662241</v>
+        <v>1.018291362662242</v>
       </c>
       <c r="E7">
         <v>1.003928289285024</v>
@@ -647,13 +647,13 @@
         <v>1.019266068175248</v>
       </c>
       <c r="K7">
-        <v>1.028170998702604</v>
+        <v>1.028170998702605</v>
       </c>
       <c r="L7">
-        <v>1.013976547792914</v>
+        <v>1.013976547792915</v>
       </c>
       <c r="M7">
-        <v>1.019908694174136</v>
+        <v>1.019908694174137</v>
       </c>
       <c r="N7">
         <v>1.020713542903509</v>
@@ -667,31 +667,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874273821523022</v>
+        <v>0.9874273821523015</v>
       </c>
       <c r="D8">
         <v>1.008609550617872</v>
       </c>
       <c r="E8">
-        <v>0.993150345837237</v>
+        <v>0.9931503458372365</v>
       </c>
       <c r="F8">
-        <v>0.9974468529619449</v>
+        <v>0.9974468529619448</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040592093682814</v>
+        <v>1.040592093682815</v>
       </c>
       <c r="J8">
-        <v>1.00940668350834</v>
+        <v>1.009406683508339</v>
       </c>
       <c r="K8">
         <v>1.019674149443541</v>
       </c>
       <c r="L8">
-        <v>1.004423906474716</v>
+        <v>1.004423906474715</v>
       </c>
       <c r="M8">
         <v>1.008661519676107</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633513233404754</v>
+        <v>0.9633513233404761</v>
       </c>
       <c r="D9">
-        <v>0.9899014969615531</v>
+        <v>0.9899014969615534</v>
       </c>
       <c r="E9">
-        <v>0.9722999294350441</v>
+        <v>0.9722999294350446</v>
       </c>
       <c r="F9">
-        <v>0.9733540167098387</v>
+        <v>0.9733540167098389</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.031514337965002</v>
       </c>
       <c r="J9">
-        <v>0.9902680957782791</v>
+        <v>0.9902680957782797</v>
       </c>
       <c r="K9">
         <v>1.003160568111273</v>
       </c>
       <c r="L9">
-        <v>0.9858589989153158</v>
+        <v>0.9858589989153165</v>
       </c>
       <c r="M9">
-        <v>0.986894725121285</v>
+        <v>0.9868947251212853</v>
       </c>
       <c r="N9">
-        <v>0.9916743900596223</v>
+        <v>0.9916743900596232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454514210555577</v>
+        <v>0.9454514210555591</v>
       </c>
       <c r="D10">
-        <v>0.9760320854369637</v>
+        <v>0.976032085436965</v>
       </c>
       <c r="E10">
-        <v>0.9568184003745733</v>
+        <v>0.9568184003745743</v>
       </c>
       <c r="F10">
-        <v>0.9554999579210395</v>
+        <v>0.955499957921041</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.024679564405589</v>
       </c>
       <c r="J10">
-        <v>0.9760098825232678</v>
+        <v>0.9760098825232691</v>
       </c>
       <c r="K10">
-        <v>0.9908480056874653</v>
+        <v>0.9908480056874666</v>
       </c>
       <c r="L10">
-        <v>0.9720136806037675</v>
+        <v>0.9720136806037684</v>
       </c>
       <c r="M10">
-        <v>0.9707220071144399</v>
+        <v>0.9707220071144415</v>
       </c>
       <c r="N10">
-        <v>0.977395928506349</v>
+        <v>0.9773959285063506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9371464526266519</v>
+        <v>0.9371464526266494</v>
       </c>
       <c r="D11">
-        <v>0.9696111915971939</v>
+        <v>0.9696111915971916</v>
       </c>
       <c r="E11">
-        <v>0.9496435597559653</v>
+        <v>0.9496435597559632</v>
       </c>
       <c r="F11">
-        <v>0.947232123313454</v>
+        <v>0.9472321233134516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021490028790963</v>
+        <v>1.021490028790962</v>
       </c>
       <c r="J11">
-        <v>0.9693897552675123</v>
+        <v>0.9693897552675099</v>
       </c>
       <c r="K11">
-        <v>0.9851298891486894</v>
+        <v>0.9851298891486874</v>
       </c>
       <c r="L11">
-        <v>0.9655819917405611</v>
+        <v>0.9655819917405589</v>
       </c>
       <c r="M11">
-        <v>0.9632228362140283</v>
+        <v>0.9632228362140259</v>
       </c>
       <c r="N11">
-        <v>0.9707663999105512</v>
+        <v>0.9707663999105488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9339658091903078</v>
+        <v>0.9339658091903085</v>
       </c>
       <c r="D12">
-        <v>0.9671547106265522</v>
+        <v>0.9671547106265531</v>
       </c>
       <c r="E12">
-        <v>0.9468972977622223</v>
+        <v>0.9468972977622224</v>
       </c>
       <c r="F12">
-        <v>0.9440682907287692</v>
+        <v>0.94406829072877</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.020265938170425</v>
       </c>
       <c r="J12">
-        <v>0.966853886537536</v>
+        <v>0.9668538865375368</v>
       </c>
       <c r="K12">
-        <v>0.9829394392058833</v>
+        <v>0.9829394392058841</v>
       </c>
       <c r="L12">
-        <v>0.9631178371516147</v>
+        <v>0.9631178371516149</v>
       </c>
       <c r="M12">
-        <v>0.9603516749537003</v>
+        <v>0.9603516749537012</v>
       </c>
       <c r="N12">
-        <v>0.9682269299561101</v>
+        <v>0.9682269299561106</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9346526359826473</v>
+        <v>0.9346526359826457</v>
       </c>
       <c r="D13">
-        <v>0.9676850362881606</v>
+        <v>0.9676850362881591</v>
       </c>
       <c r="E13">
-        <v>0.9474902475637974</v>
+        <v>0.9474902475637959</v>
       </c>
       <c r="F13">
-        <v>0.9447513670470926</v>
+        <v>0.944751367047091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020530379317884</v>
+        <v>1.020530379317883</v>
       </c>
       <c r="J13">
-        <v>0.9674014986732867</v>
+        <v>0.9674014986732852</v>
       </c>
       <c r="K13">
-        <v>0.9834124620053241</v>
+        <v>0.9834124620053226</v>
       </c>
       <c r="L13">
-        <v>0.9636499834869501</v>
+        <v>0.9636499834869486</v>
       </c>
       <c r="M13">
-        <v>0.9609716289697919</v>
+        <v>0.9609716289697905</v>
       </c>
       <c r="N13">
-        <v>0.9687753197639056</v>
+        <v>0.9687753197639042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -919,7 +919,7 @@
         <v>0.9694096558435499</v>
       </c>
       <c r="E14">
-        <v>0.949418277934743</v>
+        <v>0.9494182779347429</v>
       </c>
       <c r="F14">
         <v>0.9469725726621218</v>
@@ -937,13 +937,13 @@
         <v>0.9849502373701673</v>
       </c>
       <c r="L14">
-        <v>0.9653798995731622</v>
+        <v>0.9653798995731619</v>
       </c>
       <c r="M14">
-        <v>0.9629873249607482</v>
+        <v>0.9629873249607483</v>
       </c>
       <c r="N14">
-        <v>0.9705581213466579</v>
+        <v>0.9705581213466578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9382482466890435</v>
+        <v>0.9382482466890428</v>
       </c>
       <c r="D15">
-        <v>0.9704624743193039</v>
+        <v>0.9704624743193034</v>
       </c>
       <c r="E15">
-        <v>0.9505950899539611</v>
+        <v>0.9505950899539601</v>
       </c>
       <c r="F15">
-        <v>0.9483284264396166</v>
+        <v>0.9483284264396163</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.021913746275074</v>
       </c>
       <c r="J15">
-        <v>0.970268142042421</v>
+        <v>0.9702681420424205</v>
       </c>
       <c r="K15">
-        <v>0.9858886188764835</v>
+        <v>0.9858886188764829</v>
       </c>
       <c r="L15">
-        <v>0.9664354798141367</v>
+        <v>0.9664354798141359</v>
       </c>
       <c r="M15">
-        <v>0.964217541135457</v>
+        <v>0.9642175411354568</v>
       </c>
       <c r="N15">
-        <v>0.9716460340954325</v>
+        <v>0.9716460340954322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9459899086501453</v>
+        <v>0.9459899086501448</v>
       </c>
       <c r="D16">
-        <v>0.9764487373360436</v>
+        <v>0.976448737336043</v>
       </c>
       <c r="E16">
-        <v>0.9572838043450158</v>
+        <v>0.9572838043450155</v>
       </c>
       <c r="F16">
-        <v>0.9560363788354823</v>
+        <v>0.9560363788354818</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.024886010653571</v>
       </c>
       <c r="J16">
-        <v>0.9764390466374976</v>
+        <v>0.976439046637497</v>
       </c>
       <c r="K16">
-        <v>0.9912186754128252</v>
+        <v>0.9912186754128247</v>
       </c>
       <c r="L16">
-        <v>0.972430563625735</v>
+        <v>0.9724305636257345</v>
       </c>
       <c r="M16">
-        <v>0.9712083548963402</v>
+        <v>0.9712083548963396</v>
       </c>
       <c r="N16">
-        <v>0.9778257020828468</v>
+        <v>0.9778257020828465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506896387216895</v>
+        <v>0.9506896387216904</v>
       </c>
       <c r="D17">
-        <v>0.9800867409570644</v>
+        <v>0.9800867409570654</v>
       </c>
       <c r="E17">
-        <v>0.9613466195181818</v>
+        <v>0.961346619518183</v>
       </c>
       <c r="F17">
-        <v>0.9607198574277002</v>
+        <v>0.9607198574277012</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.026685771123444</v>
       </c>
       <c r="J17">
-        <v>0.9801841300561743</v>
+        <v>0.9801841300561751</v>
       </c>
       <c r="K17">
-        <v>0.9944531690747441</v>
+        <v>0.9944531690747449</v>
       </c>
       <c r="L17">
-        <v>0.9760681147137217</v>
+        <v>0.9760681147137227</v>
       </c>
       <c r="M17">
-        <v>0.9754535417510184</v>
+        <v>0.9754535417510193</v>
       </c>
       <c r="N17">
-        <v>0.9815761039495452</v>
+        <v>0.9815761039495461</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533784156164115</v>
+        <v>0.9533784156164098</v>
       </c>
       <c r="D18">
-        <v>0.9821693560931182</v>
+        <v>0.9821693560931166</v>
       </c>
       <c r="E18">
-        <v>0.9636717313985195</v>
+        <v>0.9636717313985179</v>
       </c>
       <c r="F18">
-        <v>0.9634007894892518</v>
+        <v>0.9634007894892503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027713718183757</v>
+        <v>1.027713718183756</v>
       </c>
       <c r="J18">
-        <v>0.9823262818947415</v>
+        <v>0.9823262818947396</v>
       </c>
       <c r="K18">
-        <v>0.99630313530725</v>
+        <v>0.9963031353072485</v>
       </c>
       <c r="L18">
-        <v>0.9781484548914987</v>
+        <v>0.9781484548914972</v>
       </c>
       <c r="M18">
-        <v>0.9778826642127834</v>
+        <v>0.977882664212782</v>
       </c>
       <c r="N18">
-        <v>0.9837212978894311</v>
+        <v>0.9837212978894297</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.954286652853138</v>
+        <v>0.9542866528531367</v>
       </c>
       <c r="D19">
-        <v>0.9828730409915513</v>
+        <v>0.9828730409915499</v>
       </c>
       <c r="E19">
-        <v>0.9644572403114468</v>
+        <v>0.9644572403114456</v>
       </c>
       <c r="F19">
-        <v>0.9643066178875577</v>
+        <v>0.9643066178875561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028060649476358</v>
+        <v>1.028060649476357</v>
       </c>
       <c r="J19">
-        <v>0.98304979168524</v>
+        <v>0.9830497916852389</v>
       </c>
       <c r="K19">
-        <v>0.9969279343390105</v>
+        <v>0.9969279343390094</v>
       </c>
       <c r="L19">
-        <v>0.9788510356883978</v>
+        <v>0.9788510356883967</v>
       </c>
       <c r="M19">
-        <v>0.9787032548741419</v>
+        <v>0.9787032548741403</v>
       </c>
       <c r="N19">
-        <v>0.98444583514682</v>
+        <v>0.984445835146819</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501909141172626</v>
+        <v>0.9501909141172619</v>
       </c>
       <c r="D20">
-        <v>0.9797005493249541</v>
+        <v>0.9797005493249534</v>
       </c>
       <c r="E20">
-        <v>0.9609154053780146</v>
+        <v>0.9609154053780142</v>
       </c>
       <c r="F20">
-        <v>0.9602227046840414</v>
+        <v>0.9602227046840401</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.026494962488147</v>
       </c>
       <c r="J20">
-        <v>0.9797867567541513</v>
+        <v>0.9797867567541506</v>
       </c>
       <c r="K20">
-        <v>0.9941099852713038</v>
+        <v>0.9941099852713031</v>
       </c>
       <c r="L20">
-        <v>0.9756821827270981</v>
+        <v>0.9756821827270975</v>
       </c>
       <c r="M20">
-        <v>0.9750030096643277</v>
+        <v>0.975003009664327</v>
       </c>
       <c r="N20">
-        <v>0.981178166331854</v>
+        <v>0.9811781663318533</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.93623079105958</v>
+        <v>0.9362307910595823</v>
       </c>
       <c r="D21">
-        <v>0.9689038543844479</v>
+        <v>0.9689038543844497</v>
       </c>
       <c r="E21">
-        <v>0.9488528579366439</v>
+        <v>0.9488528579366462</v>
       </c>
       <c r="F21">
-        <v>0.9463211554534936</v>
+        <v>0.9463211554534957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021137767200687</v>
+        <v>1.021137767200688</v>
       </c>
       <c r="J21">
-        <v>0.9686597374238481</v>
+        <v>0.9686597374238504</v>
       </c>
       <c r="K21">
-        <v>0.9844993129475686</v>
+        <v>0.9844993129475705</v>
       </c>
       <c r="L21">
-        <v>0.964872643935742</v>
+        <v>0.9648726439357442</v>
       </c>
       <c r="M21">
-        <v>0.962396218044769</v>
+        <v>0.9623962180447709</v>
       </c>
       <c r="N21">
-        <v>0.970035345357815</v>
+        <v>0.9700353453578171</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268907239386251</v>
+        <v>0.9268907239386245</v>
       </c>
       <c r="D22">
-        <v>0.9616959148886577</v>
+        <v>0.9616959148886569</v>
       </c>
       <c r="E22">
-        <v>0.940791820362693</v>
+        <v>0.9407918203626925</v>
       </c>
       <c r="F22">
-        <v>0.9370356696592266</v>
+        <v>0.9370356696592256</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.017538567958326</v>
       </c>
       <c r="J22">
-        <v>0.9612124505007585</v>
+        <v>0.9612124505007577</v>
       </c>
       <c r="K22">
-        <v>0.9780663877784824</v>
+        <v>0.9780663877784814</v>
       </c>
       <c r="L22">
-        <v>0.9576351057910206</v>
+        <v>0.9576351057910203</v>
       </c>
       <c r="M22">
-        <v>0.9539669091517233</v>
+        <v>0.9539669091517223</v>
       </c>
       <c r="N22">
-        <v>0.9625774824330788</v>
+        <v>0.9625774824330779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9319003937499534</v>
+        <v>0.9319003937499512</v>
       </c>
       <c r="D23">
-        <v>0.965560346921168</v>
+        <v>0.965560346921166</v>
       </c>
       <c r="E23">
-        <v>0.9451144484838646</v>
+        <v>0.9451144484838624</v>
       </c>
       <c r="F23">
-        <v>0.9420145515065906</v>
+        <v>0.9420145515065891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019470357647556</v>
+        <v>1.019470357647555</v>
       </c>
       <c r="J23">
-        <v>0.9652070645980007</v>
+        <v>0.9652070645979987</v>
       </c>
       <c r="K23">
-        <v>0.9815169224812589</v>
+        <v>0.9815169224812571</v>
       </c>
       <c r="L23">
-        <v>0.9615174588141642</v>
+        <v>0.9615174588141621</v>
       </c>
       <c r="M23">
-        <v>0.958487505635551</v>
+        <v>0.9584875056355496</v>
       </c>
       <c r="N23">
-        <v>0.9665777693405279</v>
+        <v>0.9665777693405255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504164276063506</v>
+        <v>0.9504164276063503</v>
       </c>
       <c r="D24">
-        <v>0.9798751737013935</v>
+        <v>0.979875173701393</v>
       </c>
       <c r="E24">
-        <v>0.9611103897333072</v>
+        <v>0.961110389733307</v>
       </c>
       <c r="F24">
-        <v>0.9604475028971029</v>
+        <v>0.9604475028971021</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.026581247783753</v>
       </c>
       <c r="J24">
-        <v>0.9799664426183869</v>
+        <v>0.9799664426183865</v>
       </c>
       <c r="K24">
-        <v>0.994265167931582</v>
+        <v>0.9942651679315817</v>
       </c>
       <c r="L24">
-        <v>0.9758566959605114</v>
+        <v>0.9758566959605112</v>
       </c>
       <c r="M24">
-        <v>0.9752067302239841</v>
+        <v>0.9752067302239839</v>
       </c>
       <c r="N24">
-        <v>0.9813581073706271</v>
+        <v>0.9813581073706265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698681190941445</v>
+        <v>0.9698681190941448</v>
       </c>
       <c r="D25">
-        <v>0.9949599882374197</v>
+        <v>0.9949599882374198</v>
       </c>
       <c r="E25">
-        <v>0.977941140850121</v>
+        <v>0.9779411408501208</v>
       </c>
       <c r="F25">
-        <v>0.9798661612120035</v>
+        <v>0.9798661612120034</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1.03398632354799</v>
       </c>
       <c r="J25">
-        <v>0.9954539046887784</v>
+        <v>0.9954539046887788</v>
       </c>
       <c r="K25">
         <v>1.007637051013383</v>
@@ -1391,10 +1391,10 @@
         <v>0.9908918246731481</v>
       </c>
       <c r="M25">
-        <v>0.9927852826874038</v>
+        <v>0.9927852826874037</v>
       </c>
       <c r="N25">
-        <v>0.9968675634135952</v>
+        <v>0.9968675634135956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.984091225334731</v>
+        <v>0.993484776139958</v>
       </c>
       <c r="D2">
-        <v>1.006014274437154</v>
+        <v>1.016425159335947</v>
       </c>
       <c r="E2">
-        <v>0.9902598786364053</v>
+        <v>1.000717491366559</v>
       </c>
       <c r="F2">
-        <v>0.9941026794807672</v>
+        <v>1.002459511474394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039343923125571</v>
+        <v>1.044786534975906</v>
       </c>
       <c r="J2">
-        <v>1.00675840495256</v>
+        <v>1.015862118167206</v>
       </c>
       <c r="K2">
-        <v>1.01739045196991</v>
+        <v>1.027660311685869</v>
       </c>
       <c r="L2">
-        <v>1.001856597622294</v>
+        <v>1.012166839436536</v>
       </c>
       <c r="M2">
-        <v>1.00564478939668</v>
+        <v>1.013884687414199</v>
       </c>
       <c r="N2">
-        <v>1.008188117364395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008929822391991</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030628368739077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938004024915973</v>
+        <v>0.9985870594997011</v>
       </c>
       <c r="D3">
-        <v>1.013569376837392</v>
+        <v>1.019854702172943</v>
       </c>
       <c r="E3">
-        <v>0.998672669886156</v>
+        <v>1.004833125921561</v>
       </c>
       <c r="F3">
-        <v>1.00384056747382</v>
+        <v>1.008241225926207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042966259351327</v>
+        <v>1.046220976320797</v>
       </c>
       <c r="J3">
-        <v>1.014461513528987</v>
+        <v>1.019116316949421</v>
       </c>
       <c r="K3">
-        <v>1.024031529765885</v>
+        <v>1.030239688087751</v>
       </c>
       <c r="L3">
-        <v>1.009322562368714</v>
+        <v>1.0154045372679</v>
       </c>
       <c r="M3">
-        <v>1.0144245422495</v>
+        <v>1.01876973361751</v>
       </c>
       <c r="N3">
-        <v>1.01590216523856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010049131454454</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032449562558479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.999831651062031</v>
+        <v>1.001814419984392</v>
       </c>
       <c r="D4">
-        <v>1.018265391331014</v>
+        <v>1.02202644535642</v>
       </c>
       <c r="E4">
-        <v>1.003899387720259</v>
+        <v>1.007442782687094</v>
       </c>
       <c r="F4">
-        <v>1.009898123692493</v>
+        <v>1.011897863672815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045199683354836</v>
+        <v>1.047114253385992</v>
       </c>
       <c r="J4">
-        <v>1.019239664203179</v>
+        <v>1.021171826315892</v>
       </c>
       <c r="K4">
-        <v>1.028148256150004</v>
+        <v>1.031866104701871</v>
       </c>
       <c r="L4">
-        <v>1.013950977291871</v>
+        <v>1.017452202231214</v>
       </c>
       <c r="M4">
-        <v>1.019878537085546</v>
+        <v>1.021854781865831</v>
       </c>
       <c r="N4">
-        <v>1.020687101434771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01075597326804</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03360050730846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002311521986952</v>
+        <v>1.003158869706836</v>
       </c>
       <c r="D5">
-        <v>1.020196763528678</v>
+        <v>1.022933660342855</v>
       </c>
       <c r="E5">
-        <v>1.00604852894051</v>
+        <v>1.008532074660189</v>
       </c>
       <c r="F5">
-        <v>1.012390772490301</v>
+        <v>1.013419662965778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046113902269389</v>
+        <v>1.047484316678755</v>
       </c>
       <c r="J5">
-        <v>1.021202550657472</v>
+        <v>1.022028969743213</v>
       </c>
       <c r="K5">
-        <v>1.02983874573201</v>
+        <v>1.03254509198955</v>
       </c>
       <c r="L5">
-        <v>1.015851714899656</v>
+        <v>1.018306559162099</v>
       </c>
       <c r="M5">
-        <v>1.022121008091634</v>
+        <v>1.023138170144943</v>
       </c>
       <c r="N5">
-        <v>1.022652775412975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011051613798705</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034087846246828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002724759441588</v>
+        <v>1.003389336660229</v>
       </c>
       <c r="D6">
-        <v>1.02051862619816</v>
+        <v>1.023091621808947</v>
       </c>
       <c r="E6">
-        <v>1.006406655657028</v>
+        <v>1.008719717556424</v>
       </c>
       <c r="F6">
-        <v>1.012806252644503</v>
+        <v>1.013678833983919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046266001165678</v>
+        <v>1.04754921883589</v>
       </c>
       <c r="J6">
-        <v>1.021529534487631</v>
+        <v>1.02217778844057</v>
       </c>
       <c r="K6">
-        <v>1.030120311579927</v>
+        <v>1.032664725833681</v>
       </c>
       <c r="L6">
-        <v>1.016168308216317</v>
+        <v>1.018454771733484</v>
       </c>
       <c r="M6">
-        <v>1.022494681058743</v>
+        <v>1.023357366631058</v>
       </c>
       <c r="N6">
-        <v>1.022980223597679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011104079283203</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034181252574248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998650004186974</v>
+        <v>1.001847827078755</v>
       </c>
       <c r="D7">
-        <v>1.018291362662242</v>
+        <v>1.022055435069091</v>
       </c>
       <c r="E7">
-        <v>1.003928289285024</v>
+        <v>1.00747210201374</v>
       </c>
       <c r="F7">
-        <v>1.009931637198074</v>
+        <v>1.011931099999362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045211994154068</v>
+        <v>1.047127919351081</v>
       </c>
       <c r="J7">
-        <v>1.019266068175248</v>
+        <v>1.021198309640283</v>
       </c>
       <c r="K7">
-        <v>1.028170998702605</v>
+        <v>1.031891848292644</v>
       </c>
       <c r="L7">
-        <v>1.013976547792915</v>
+        <v>1.017478202703744</v>
       </c>
       <c r="M7">
-        <v>1.019908694174137</v>
+        <v>1.02188467482491</v>
       </c>
       <c r="N7">
-        <v>1.020713542903509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010768218880056</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033638989605236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874273821523015</v>
+        <v>0.9952442692051962</v>
       </c>
       <c r="D8">
-        <v>1.008609550617872</v>
+        <v>1.017615158843084</v>
       </c>
       <c r="E8">
-        <v>0.9931503458372365</v>
+        <v>1.002138372226288</v>
       </c>
       <c r="F8">
-        <v>0.9974468529619448</v>
+        <v>1.004447568817827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040592093682815</v>
+        <v>1.04528945418786</v>
       </c>
       <c r="J8">
-        <v>1.009406683508339</v>
+        <v>1.016991330309059</v>
       </c>
       <c r="K8">
-        <v>1.019674149443541</v>
+        <v>1.028561693217798</v>
       </c>
       <c r="L8">
-        <v>1.004423906474715</v>
+        <v>1.01328945560452</v>
       </c>
       <c r="M8">
-        <v>1.008661519676107</v>
+        <v>1.015567630116391</v>
       </c>
       <c r="N8">
-        <v>1.010840156779486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009322372783767</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031288876597031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633513233404761</v>
+        <v>0.9829798557812883</v>
       </c>
       <c r="D9">
-        <v>0.9899014969615534</v>
+        <v>1.009381223974234</v>
       </c>
       <c r="E9">
-        <v>0.9722999294350446</v>
+        <v>0.992282204258234</v>
       </c>
       <c r="F9">
-        <v>0.9733540167098389</v>
+        <v>0.9905509495807979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031514337965002</v>
+        <v>1.041757914301109</v>
       </c>
       <c r="J9">
-        <v>0.9902680957782797</v>
+        <v>1.009148294592611</v>
       </c>
       <c r="K9">
-        <v>1.003160568111273</v>
+        <v>1.022323909136707</v>
       </c>
       <c r="L9">
-        <v>0.9858589989153165</v>
+        <v>1.005501750817061</v>
       </c>
       <c r="M9">
-        <v>0.9868947251212853</v>
+        <v>1.003799214225257</v>
       </c>
       <c r="N9">
-        <v>0.9916743900596232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006620475395041</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026875017867537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454514210555591</v>
+        <v>0.9743499531990419</v>
       </c>
       <c r="D10">
-        <v>0.976032085436965</v>
+        <v>1.003610176973739</v>
       </c>
       <c r="E10">
-        <v>0.9568184003745743</v>
+        <v>0.9853885560233705</v>
       </c>
       <c r="F10">
-        <v>0.955499957921041</v>
+        <v>0.9807642850189278</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024679564405589</v>
+        <v>1.039202985213663</v>
       </c>
       <c r="J10">
-        <v>0.9760098825232691</v>
+        <v>1.003619553058318</v>
       </c>
       <c r="K10">
-        <v>0.9908480056874666</v>
+        <v>1.01791455306775</v>
       </c>
       <c r="L10">
-        <v>0.9720136806037684</v>
+        <v>1.00002673297072</v>
       </c>
       <c r="M10">
-        <v>0.9707220071144415</v>
+        <v>0.9954897542113426</v>
       </c>
       <c r="N10">
-        <v>0.9773959285063506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004717182012149</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023774283020951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9371464526266494</v>
+        <v>0.9705115547904848</v>
       </c>
       <c r="D11">
-        <v>0.9696111915971916</v>
+        <v>1.00105682683746</v>
       </c>
       <c r="E11">
-        <v>0.9496435597559632</v>
+        <v>0.9823367170325185</v>
       </c>
       <c r="F11">
-        <v>0.9472321233134516</v>
+        <v>0.9764027023691386</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021490028790962</v>
+        <v>1.038055174598825</v>
       </c>
       <c r="J11">
-        <v>0.9693897552675099</v>
+        <v>1.001164709278106</v>
       </c>
       <c r="K11">
-        <v>0.9851298891486874</v>
+        <v>1.015958840434661</v>
       </c>
       <c r="L11">
-        <v>0.9655819917405589</v>
+        <v>0.9975996056585931</v>
       </c>
       <c r="M11">
-        <v>0.9632228362140259</v>
+        <v>0.9917837849008019</v>
       </c>
       <c r="N11">
-        <v>0.9707663999105488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003877211813502</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022424847387387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9339658091903085</v>
+        <v>0.9690550981634549</v>
       </c>
       <c r="D12">
-        <v>0.9671547106265531</v>
+        <v>1.000084809143209</v>
       </c>
       <c r="E12">
-        <v>0.9468972977622224</v>
+        <v>0.9811784105449547</v>
       </c>
       <c r="F12">
-        <v>0.94406829072877</v>
+        <v>0.9747508708300148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020265938170425</v>
+        <v>1.037614653618744</v>
       </c>
       <c r="J12">
-        <v>0.9668538865375368</v>
+        <v>1.0002294000163</v>
       </c>
       <c r="K12">
-        <v>0.9829394392058841</v>
+        <v>1.015210384524072</v>
       </c>
       <c r="L12">
-        <v>0.9631178371516149</v>
+        <v>0.9966753098323622</v>
       </c>
       <c r="M12">
-        <v>0.9603516749537012</v>
+        <v>0.9903783360947972</v>
       </c>
       <c r="N12">
-        <v>0.9682269299561106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003554518725485</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021895647415862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9346526359826457</v>
+        <v>0.9693662014083976</v>
       </c>
       <c r="D13">
-        <v>0.9676850362881591</v>
+        <v>1.00029157800977</v>
       </c>
       <c r="E13">
-        <v>0.9474902475637959</v>
+        <v>0.9814253506730489</v>
       </c>
       <c r="F13">
-        <v>0.944751367047091</v>
+        <v>0.9751044249175422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020530379317883</v>
+        <v>1.037708352361375</v>
       </c>
       <c r="J13">
-        <v>0.9674014986732852</v>
+        <v>1.000428503495207</v>
       </c>
       <c r="K13">
-        <v>0.9834124620053226</v>
+        <v>1.015369178832979</v>
       </c>
       <c r="L13">
-        <v>0.9636499834869486</v>
+        <v>0.9968720153395557</v>
       </c>
       <c r="M13">
-        <v>0.9609716289697905</v>
+        <v>0.9906789518729643</v>
       </c>
       <c r="N13">
-        <v>0.9687753197639042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003622675301588</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022005386902422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9368855767618595</v>
+        <v>0.9703906253922451</v>
       </c>
       <c r="D14">
-        <v>0.9694096558435499</v>
+        <v>1.000975752574116</v>
       </c>
       <c r="E14">
-        <v>0.9494182779347429</v>
+        <v>0.9822403381683914</v>
       </c>
       <c r="F14">
-        <v>0.9469725726621218</v>
+        <v>0.9762658571359808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021389679438118</v>
+        <v>1.038018430368098</v>
       </c>
       <c r="J14">
-        <v>0.9691817720636243</v>
+        <v>1.001086760144015</v>
       </c>
       <c r="K14">
-        <v>0.9849502373701673</v>
+        <v>1.015896235798745</v>
       </c>
       <c r="L14">
-        <v>0.9653798995731619</v>
+        <v>0.9975225516933468</v>
       </c>
       <c r="M14">
-        <v>0.9629873249607483</v>
+        <v>0.9916672651279689</v>
       </c>
       <c r="N14">
-        <v>0.9705581213466578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003850090472703</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022379495890016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9382482466890428</v>
+        <v>0.9710235557101858</v>
       </c>
       <c r="D15">
-        <v>0.9704624743193034</v>
+        <v>1.001400214783539</v>
       </c>
       <c r="E15">
-        <v>0.9505950899539601</v>
+        <v>0.9827448826944875</v>
       </c>
       <c r="F15">
-        <v>0.9483284264396163</v>
+        <v>0.9769820030599211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021913746275074</v>
+        <v>1.038210703085242</v>
       </c>
       <c r="J15">
-        <v>0.9702681420424205</v>
+        <v>1.001494797391346</v>
       </c>
       <c r="K15">
-        <v>0.9858886188764829</v>
+        <v>1.016223992276394</v>
       </c>
       <c r="L15">
-        <v>0.9664354798141359</v>
+        <v>0.997925926472082</v>
       </c>
       <c r="M15">
-        <v>0.9642175411354568</v>
+        <v>0.9922770385469496</v>
       </c>
       <c r="N15">
-        <v>0.9716460340954322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003992114438995</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022617211342221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9459899086501448</v>
+        <v>0.9746396608754657</v>
       </c>
       <c r="D16">
-        <v>0.976448737336043</v>
+        <v>1.003817142650762</v>
       </c>
       <c r="E16">
-        <v>0.9572838043450155</v>
+        <v>0.9856258305078712</v>
       </c>
       <c r="F16">
-        <v>0.9560363788354818</v>
+        <v>0.9810815626527467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024886010653571</v>
+        <v>1.039298130895532</v>
       </c>
       <c r="J16">
-        <v>0.976439046637497</v>
+        <v>1.003816751914679</v>
       </c>
       <c r="K16">
-        <v>0.9912186754128247</v>
+        <v>1.018081341535243</v>
       </c>
       <c r="L16">
-        <v>0.9724305636257345</v>
+        <v>1.000222100173441</v>
       </c>
       <c r="M16">
-        <v>0.9712083548963396</v>
+        <v>0.995763297802709</v>
       </c>
       <c r="N16">
-        <v>0.9778257020828465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004793662453913</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023933676383577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506896387216904</v>
+        <v>0.9768741536815909</v>
       </c>
       <c r="D17">
-        <v>0.9800867409570654</v>
+        <v>1.005312290595013</v>
       </c>
       <c r="E17">
-        <v>0.961346619518183</v>
+        <v>0.987408882134606</v>
       </c>
       <c r="F17">
-        <v>0.9607198574277012</v>
+        <v>0.9836142286868893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026685771123444</v>
+        <v>1.03996585902375</v>
       </c>
       <c r="J17">
-        <v>0.9801841300561751</v>
+        <v>1.00525097735444</v>
       </c>
       <c r="K17">
-        <v>0.9944531690747449</v>
+        <v>1.019227812855417</v>
       </c>
       <c r="L17">
-        <v>0.9760681147137227</v>
+        <v>1.001641340701008</v>
       </c>
       <c r="M17">
-        <v>0.9754535417510193</v>
+        <v>0.9979157919175881</v>
       </c>
       <c r="N17">
-        <v>0.9815761039495461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005288748233387</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024746918819754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533784156164098</v>
+        <v>0.9781542308031488</v>
       </c>
       <c r="D18">
-        <v>0.9821693560931166</v>
+        <v>1.006165042405552</v>
       </c>
       <c r="E18">
-        <v>0.9636717313985179</v>
+        <v>0.988429331690663</v>
       </c>
       <c r="F18">
-        <v>0.9634007894892503</v>
+        <v>0.9850685172587195</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027713718183756</v>
+        <v>1.040344096019966</v>
       </c>
       <c r="J18">
-        <v>0.9823262818947396</v>
+        <v>1.006068729800033</v>
       </c>
       <c r="K18">
-        <v>0.9963031353072485</v>
+        <v>1.019878201009268</v>
       </c>
       <c r="L18">
-        <v>0.9781484548914972</v>
+        <v>1.002450824323439</v>
       </c>
       <c r="M18">
-        <v>0.977882664212782</v>
+        <v>0.9991500630679698</v>
       </c>
       <c r="N18">
-        <v>0.9837212978894297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005568334903118</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025194958902114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9542866528531367</v>
+        <v>0.9785976219793768</v>
       </c>
       <c r="D19">
-        <v>0.9828730409915499</v>
+        <v>1.006463880683073</v>
       </c>
       <c r="E19">
-        <v>0.9644572403114456</v>
+        <v>0.9887845108018468</v>
       </c>
       <c r="F19">
-        <v>0.9643066178875561</v>
+        <v>0.9855694341685391</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028060649476357</v>
+        <v>1.040476990994465</v>
       </c>
       <c r="J19">
-        <v>0.9830497916852389</v>
+        <v>1.006354784842441</v>
       </c>
       <c r="K19">
-        <v>0.9969279343390094</v>
+        <v>1.020108014311692</v>
       </c>
       <c r="L19">
-        <v>0.9788510356883967</v>
+        <v>1.002734087836421</v>
       </c>
       <c r="M19">
-        <v>0.9787032548741403</v>
+        <v>0.9995760862509979</v>
       </c>
       <c r="N19">
-        <v>0.984445835146819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005668238037906</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025363938312001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501909141172619</v>
+        <v>0.976634746583693</v>
       </c>
       <c r="D20">
-        <v>0.9797005493249534</v>
+        <v>1.005151703162387</v>
       </c>
       <c r="E20">
-        <v>0.9609154053780142</v>
+        <v>0.9872175831950298</v>
       </c>
       <c r="F20">
-        <v>0.9602227046840401</v>
+        <v>0.9833431739318197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026494962488147</v>
+        <v>1.039894264675366</v>
       </c>
       <c r="J20">
-        <v>0.9797867567541506</v>
+        <v>1.005097051512443</v>
       </c>
       <c r="K20">
-        <v>0.9941099852713031</v>
+        <v>1.019104566940485</v>
       </c>
       <c r="L20">
-        <v>0.9756821827270975</v>
+        <v>1.001488982550138</v>
       </c>
       <c r="M20">
-        <v>0.975003009664327</v>
+        <v>0.9976853764231357</v>
       </c>
       <c r="N20">
-        <v>0.9811781663318533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005235404032474</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024658421541191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362307910595823</v>
+        <v>0.970101972601906</v>
       </c>
       <c r="D21">
-        <v>0.9689038543844497</v>
+        <v>1.000787484810034</v>
       </c>
       <c r="E21">
-        <v>0.9488528579366462</v>
+        <v>0.9820128873090309</v>
       </c>
       <c r="F21">
-        <v>0.9463211554534957</v>
+        <v>0.9759346925780497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021137767200688</v>
+        <v>1.037933951068257</v>
       </c>
       <c r="J21">
-        <v>0.9686597374238504</v>
+        <v>1.000905175287107</v>
       </c>
       <c r="K21">
-        <v>0.9844993129475705</v>
+        <v>1.015753953393414</v>
       </c>
       <c r="L21">
-        <v>0.9648726439357442</v>
+        <v>0.9973432363457205</v>
       </c>
       <c r="M21">
-        <v>0.9623962180447709</v>
+        <v>0.9913867974017317</v>
       </c>
       <c r="N21">
-        <v>0.9700353453578171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003790350744697</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022292642832819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268907239386245</v>
+        <v>0.9658640716172855</v>
       </c>
       <c r="D22">
-        <v>0.9616959148886569</v>
+        <v>0.997956615891965</v>
       </c>
       <c r="E22">
-        <v>0.9407918203626925</v>
+        <v>0.9786435432593292</v>
       </c>
       <c r="F22">
-        <v>0.9370356696592256</v>
+        <v>0.9711315064807563</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017538567958326</v>
+        <v>1.036644867514587</v>
       </c>
       <c r="J22">
-        <v>0.9612124505007577</v>
+        <v>0.9981792391196249</v>
       </c>
       <c r="K22">
-        <v>0.9780663877784814</v>
+        <v>1.013568661595795</v>
       </c>
       <c r="L22">
-        <v>0.9576351057910203</v>
+        <v>0.9946502890121627</v>
       </c>
       <c r="M22">
-        <v>0.9539669091517223</v>
+        <v>0.9872973979515463</v>
       </c>
       <c r="N22">
-        <v>0.9625774824330779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002846844905209</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.020733766344432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9319003937499512</v>
+        <v>0.9681070422386043</v>
       </c>
       <c r="D23">
-        <v>0.965560346921166</v>
+        <v>0.9994488657339182</v>
       </c>
       <c r="E23">
-        <v>0.9451144484838624</v>
+        <v>0.9804231608650961</v>
       </c>
       <c r="F23">
-        <v>0.9420145515065891</v>
+        <v>0.9736785968350491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019470357647555</v>
+        <v>1.03732504813364</v>
       </c>
       <c r="J23">
-        <v>0.9652070645979987</v>
+        <v>0.9996174700646744</v>
       </c>
       <c r="K23">
-        <v>0.9815169224812571</v>
+        <v>1.01471818376515</v>
       </c>
       <c r="L23">
-        <v>0.9615174588141621</v>
+        <v>0.9960706086802086</v>
       </c>
       <c r="M23">
-        <v>0.9584875056355496</v>
+        <v>0.9894647780921568</v>
       </c>
       <c r="N23">
-        <v>0.9665777693405255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003341043136625</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021536745436487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504164276063503</v>
+        <v>0.9767187142402819</v>
       </c>
       <c r="D24">
-        <v>0.979875173701393</v>
+        <v>1.005198963910137</v>
       </c>
       <c r="E24">
-        <v>0.961110389733307</v>
+        <v>0.9872804675260899</v>
       </c>
       <c r="F24">
-        <v>0.9604475028971021</v>
+        <v>0.98344577809065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026581247783753</v>
+        <v>1.039913624948985</v>
       </c>
       <c r="J24">
-        <v>0.9799664426183865</v>
+        <v>1.00514337923583</v>
       </c>
       <c r="K24">
-        <v>0.9942651679315817</v>
+        <v>1.01913539093415</v>
       </c>
       <c r="L24">
-        <v>0.9758566959605112</v>
+        <v>1.001534696095555</v>
       </c>
       <c r="M24">
-        <v>0.9752067302239839</v>
+        <v>0.9977699778630648</v>
       </c>
       <c r="N24">
-        <v>0.9813581073706265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005245797160124</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024652392553863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698681190941448</v>
+        <v>0.986252215141425</v>
       </c>
       <c r="D25">
-        <v>0.9949599882374198</v>
+        <v>1.011584730413437</v>
       </c>
       <c r="E25">
-        <v>0.9779411408501208</v>
+        <v>0.9949094170624202</v>
       </c>
       <c r="F25">
-        <v>0.9798661612120034</v>
+        <v>0.9942520510820659</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03398632354799</v>
+        <v>1.042719123083273</v>
       </c>
       <c r="J25">
-        <v>0.9954539046887788</v>
+        <v>1.011251273252526</v>
       </c>
       <c r="K25">
-        <v>1.007637051013383</v>
+        <v>1.024005831318107</v>
       </c>
       <c r="L25">
-        <v>0.9908918246731481</v>
+        <v>1.007587275152328</v>
       </c>
       <c r="M25">
-        <v>0.9927852826874037</v>
+        <v>1.006940256741976</v>
       </c>
       <c r="N25">
-        <v>0.9968675634135956</v>
+        <v>1.007350596879496</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028093227233838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993484776139958</v>
+        <v>0.9943697880572092</v>
       </c>
       <c r="D2">
-        <v>1.016425159335947</v>
+        <v>1.016933911923256</v>
       </c>
       <c r="E2">
-        <v>1.000717491366559</v>
+        <v>1.001513511615081</v>
       </c>
       <c r="F2">
-        <v>1.002459511474394</v>
+        <v>1.003147455967761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044786534975906</v>
+        <v>1.045064913790714</v>
       </c>
       <c r="J2">
-        <v>1.015862118167206</v>
+        <v>1.016720211837692</v>
       </c>
       <c r="K2">
-        <v>1.027660311685869</v>
+        <v>1.02816226568755</v>
       </c>
       <c r="L2">
-        <v>1.012166839436536</v>
+        <v>1.012951801012433</v>
       </c>
       <c r="M2">
-        <v>1.013884687414199</v>
+        <v>1.014563115200708</v>
       </c>
       <c r="N2">
-        <v>1.008929822391991</v>
+        <v>1.011467654570638</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030628368739077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030992166519957</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019573954604855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9985870594997011</v>
+        <v>0.9991172130557251</v>
       </c>
       <c r="D3">
-        <v>1.019854702172943</v>
+        <v>1.019992127942337</v>
       </c>
       <c r="E3">
-        <v>1.004833125921561</v>
+        <v>1.005317747196085</v>
       </c>
       <c r="F3">
-        <v>1.008241225926207</v>
+        <v>1.008618723690762</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046220976320797</v>
+        <v>1.04630486244686</v>
       </c>
       <c r="J3">
-        <v>1.019116316949421</v>
+        <v>1.019631972697581</v>
       </c>
       <c r="K3">
-        <v>1.030239688087751</v>
+        <v>1.030375439840221</v>
       </c>
       <c r="L3">
-        <v>1.0154045372679</v>
+        <v>1.015883035637403</v>
       </c>
       <c r="M3">
-        <v>1.01876973361751</v>
+        <v>1.019142501402007</v>
       </c>
       <c r="N3">
-        <v>1.010049131454454</v>
+        <v>1.01225960457078</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032449562558479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032554131736094</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020063397428631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001814419984392</v>
+        <v>1.002123511501718</v>
       </c>
       <c r="D4">
-        <v>1.02202644535642</v>
+        <v>1.021931102507013</v>
       </c>
       <c r="E4">
-        <v>1.007442782687094</v>
+        <v>1.007733125142065</v>
       </c>
       <c r="F4">
-        <v>1.011897863672815</v>
+        <v>1.012082370555085</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047114253385992</v>
+        <v>1.047076078260242</v>
       </c>
       <c r="J4">
-        <v>1.021171826315892</v>
+        <v>1.021473053178321</v>
       </c>
       <c r="K4">
-        <v>1.031866104701871</v>
+        <v>1.031771852264352</v>
       </c>
       <c r="L4">
-        <v>1.017452202231214</v>
+        <v>1.01773910559943</v>
       </c>
       <c r="M4">
-        <v>1.021854781865831</v>
+        <v>1.022037126742249</v>
       </c>
       <c r="N4">
-        <v>1.01075597326804</v>
+        <v>1.012760380677092</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03360050730846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033542516391762</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020369632006616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003158869706836</v>
+        <v>1.003376413712358</v>
       </c>
       <c r="D5">
-        <v>1.022933660342855</v>
+        <v>1.0227417475575</v>
       </c>
       <c r="E5">
-        <v>1.008532074660189</v>
+        <v>1.008741844846313</v>
       </c>
       <c r="F5">
-        <v>1.013419662965778</v>
+        <v>1.013524371325404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047484316678755</v>
+        <v>1.047395463506211</v>
       </c>
       <c r="J5">
-        <v>1.022028969743213</v>
+        <v>1.022241148310987</v>
       </c>
       <c r="K5">
-        <v>1.03254509198955</v>
+        <v>1.032355314868556</v>
       </c>
       <c r="L5">
-        <v>1.018306559162099</v>
+        <v>1.018513913102289</v>
       </c>
       <c r="M5">
-        <v>1.023138170144943</v>
+        <v>1.023241686570345</v>
       </c>
       <c r="N5">
-        <v>1.011051613798705</v>
+        <v>1.012969954187275</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034087846246828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033963017570781</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020497552962925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003389336660229</v>
+        <v>1.003590965009014</v>
       </c>
       <c r="D6">
-        <v>1.023091621808947</v>
+        <v>1.022883084123516</v>
       </c>
       <c r="E6">
-        <v>1.008719717556424</v>
+        <v>1.008915406589711</v>
       </c>
       <c r="F6">
-        <v>1.013678833983919</v>
+        <v>1.01376972145038</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04754921883589</v>
+        <v>1.047451635939893</v>
       </c>
       <c r="J6">
-        <v>1.02217778844057</v>
+        <v>1.022374470171243</v>
       </c>
       <c r="K6">
-        <v>1.032664725833681</v>
+        <v>1.032458498042753</v>
       </c>
       <c r="L6">
-        <v>1.018454771733484</v>
+        <v>1.018648217404388</v>
       </c>
       <c r="M6">
-        <v>1.023357366631058</v>
+        <v>1.023447224568803</v>
       </c>
       <c r="N6">
-        <v>1.011104079283203</v>
+        <v>1.013007116792446</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034181252574248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034045658873544</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020520859494357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001847827078755</v>
+        <v>1.002165637913304</v>
       </c>
       <c r="D7">
-        <v>1.022055435069091</v>
+        <v>1.021965562823748</v>
       </c>
       <c r="E7">
-        <v>1.00747210201374</v>
+        <v>1.007770459934789</v>
       </c>
       <c r="F7">
-        <v>1.011931099999362</v>
+        <v>1.012122943256842</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047127919351081</v>
+        <v>1.047092799951914</v>
       </c>
       <c r="J7">
-        <v>1.021198309640283</v>
+        <v>1.021508037744709</v>
       </c>
       <c r="K7">
-        <v>1.031891848292644</v>
+        <v>1.031803003471111</v>
       </c>
       <c r="L7">
-        <v>1.017478202703744</v>
+        <v>1.017773028070463</v>
       </c>
       <c r="M7">
-        <v>1.02188467482491</v>
+        <v>1.022074271066719</v>
       </c>
       <c r="N7">
-        <v>1.010768218880056</v>
+        <v>1.012798814232622</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033638989605236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033586817516636</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020379318178376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952442692051962</v>
+        <v>0.9960414497623935</v>
       </c>
       <c r="D8">
-        <v>1.017615158843084</v>
+        <v>1.018020284297109</v>
       </c>
       <c r="E8">
-        <v>1.002138372226288</v>
+        <v>1.002858982353857</v>
       </c>
       <c r="F8">
-        <v>1.004447568817827</v>
+        <v>1.005057590228973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04528945418786</v>
+        <v>1.045514187632004</v>
       </c>
       <c r="J8">
-        <v>1.016991330309059</v>
+        <v>1.017765107639748</v>
       </c>
       <c r="K8">
-        <v>1.028561693217798</v>
+        <v>1.028961568887293</v>
       </c>
       <c r="L8">
-        <v>1.01328945560452</v>
+        <v>1.014000365678018</v>
       </c>
       <c r="M8">
-        <v>1.015567630116391</v>
+        <v>1.016169486311478</v>
       </c>
       <c r="N8">
-        <v>1.009322372783767</v>
+        <v>1.011836243559653</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031288876597031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031582749628819</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019756538285675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9829798557812883</v>
+        <v>0.9846591218562676</v>
       </c>
       <c r="D9">
-        <v>1.009381223974234</v>
+        <v>1.010697084708693</v>
       </c>
       <c r="E9">
-        <v>0.992282204258234</v>
+        <v>0.9937752989596067</v>
       </c>
       <c r="F9">
-        <v>0.9905509495807979</v>
+        <v>0.9919356929800857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041757914301109</v>
+        <v>1.042458981134933</v>
       </c>
       <c r="J9">
-        <v>1.009148294592611</v>
+        <v>1.010765484464786</v>
       </c>
       <c r="K9">
-        <v>1.022323909136707</v>
+        <v>1.023618960912964</v>
       </c>
       <c r="L9">
-        <v>1.005501750817061</v>
+        <v>1.006970181424885</v>
       </c>
       <c r="M9">
-        <v>1.003799214225257</v>
+        <v>1.005160977145208</v>
       </c>
       <c r="N9">
-        <v>1.006620475395041</v>
+        <v>1.00994072113448</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026875017867537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027801613496045</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018558717946122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9743499531990419</v>
+        <v>0.9767289947439594</v>
       </c>
       <c r="D10">
-        <v>1.003610176973739</v>
+        <v>1.005619825157909</v>
       </c>
       <c r="E10">
-        <v>0.9853885560233705</v>
+        <v>0.9874946840357363</v>
       </c>
       <c r="F10">
-        <v>0.9807642850189278</v>
+        <v>0.9827663817584852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039202985213663</v>
+        <v>1.040267149116466</v>
       </c>
       <c r="J10">
-        <v>1.003619553058318</v>
+        <v>1.005897323420853</v>
       </c>
       <c r="K10">
-        <v>1.01791455306775</v>
+        <v>1.019888347893712</v>
       </c>
       <c r="L10">
-        <v>1.00002673297072</v>
+        <v>1.002093457260361</v>
       </c>
       <c r="M10">
-        <v>0.9954897542113426</v>
+        <v>0.9974539256412499</v>
       </c>
       <c r="N10">
-        <v>1.004717182012149</v>
+        <v>1.008739800377325</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023774283020951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025182503303223</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017713860116898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705115547904848</v>
+        <v>0.9732957189656275</v>
       </c>
       <c r="D11">
-        <v>1.00105682683746</v>
+        <v>1.003440643510512</v>
       </c>
       <c r="E11">
-        <v>0.9823367170325185</v>
+        <v>0.9848021115029968</v>
       </c>
       <c r="F11">
-        <v>0.9764027023691386</v>
+        <v>0.9787620099720056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038055174598825</v>
+        <v>1.039316471983795</v>
       </c>
       <c r="J11">
-        <v>1.001164709278106</v>
+        <v>1.003823227711462</v>
       </c>
       <c r="K11">
-        <v>1.015958840434661</v>
+        <v>1.01829796472202</v>
       </c>
       <c r="L11">
-        <v>0.9975996056585931</v>
+        <v>1.00001644403039</v>
       </c>
       <c r="M11">
-        <v>0.9917837849008019</v>
+        <v>0.9940958740394503</v>
       </c>
       <c r="N11">
-        <v>1.003877211813502</v>
+        <v>1.008420169058934</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022424847387387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024094580969126</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017360340183423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9690550981634549</v>
+        <v>0.9720032305020433</v>
       </c>
       <c r="D12">
-        <v>1.000084809143209</v>
+        <v>1.002617606117492</v>
       </c>
       <c r="E12">
-        <v>0.9811784105449547</v>
+        <v>0.9837898834722224</v>
       </c>
       <c r="F12">
-        <v>0.9747508708300148</v>
+        <v>0.9772549014422747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037614653618744</v>
+        <v>1.038954545981306</v>
       </c>
       <c r="J12">
-        <v>1.0002294000163</v>
+        <v>1.003041613043198</v>
       </c>
       <c r="K12">
-        <v>1.015210384524072</v>
+        <v>1.017694828165592</v>
       </c>
       <c r="L12">
-        <v>0.9966753098323622</v>
+        <v>0.9992343756126983</v>
       </c>
       <c r="M12">
-        <v>0.9903783360947972</v>
+        <v>0.9928312318652216</v>
       </c>
       <c r="N12">
-        <v>1.003554518725485</v>
+        <v>1.008315067112076</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021895647415862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023668140989743</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017225235604797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9693662014083976</v>
+        <v>0.9722790221622479</v>
       </c>
       <c r="D13">
-        <v>1.00029157800977</v>
+        <v>1.002792318337526</v>
       </c>
       <c r="E13">
-        <v>0.9814253506730489</v>
+        <v>0.9840053912635186</v>
       </c>
       <c r="F13">
-        <v>0.9751044249175422</v>
+        <v>0.9775772454761021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037708352361375</v>
+        <v>1.039031329729476</v>
       </c>
       <c r="J13">
-        <v>1.000428503495207</v>
+        <v>1.00320764423059</v>
       </c>
       <c r="K13">
-        <v>1.015369178832979</v>
+        <v>1.017822361924384</v>
       </c>
       <c r="L13">
-        <v>0.9968720153395557</v>
+        <v>0.9994004864595074</v>
       </c>
       <c r="M13">
-        <v>0.9906789518729643</v>
+        <v>0.993101491808125</v>
       </c>
       <c r="N13">
-        <v>1.003622675301588</v>
+        <v>1.008336085563827</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022005386902422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023755535670273</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01725351781559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9703906253922451</v>
+        <v>0.9731882662285328</v>
       </c>
       <c r="D14">
-        <v>1.000975752574116</v>
+        <v>1.003371828640671</v>
       </c>
       <c r="E14">
-        <v>0.9822403381683914</v>
+        <v>0.9847177492103394</v>
       </c>
       <c r="F14">
-        <v>0.9762658571359808</v>
+        <v>0.9786370413551891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038018430368098</v>
+        <v>1.039286193651224</v>
       </c>
       <c r="J14">
-        <v>1.001086760144015</v>
+        <v>1.003757922604972</v>
       </c>
       <c r="K14">
-        <v>1.015896235798745</v>
+        <v>1.018247321915617</v>
       </c>
       <c r="L14">
-        <v>0.9975225516933468</v>
+        <v>0.9999510938013531</v>
       </c>
       <c r="M14">
-        <v>0.9916672651279689</v>
+        <v>0.9939909137130668</v>
       </c>
       <c r="N14">
-        <v>1.003850090472703</v>
+        <v>1.008410802281078</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022379495890016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024057585403446</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017348873078343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9710235557101858</v>
+        <v>0.9737510348169872</v>
       </c>
       <c r="D15">
-        <v>1.001400214783539</v>
+        <v>1.003732392488494</v>
       </c>
       <c r="E15">
-        <v>0.9827448826944875</v>
+        <v>0.9851597477434102</v>
       </c>
       <c r="F15">
-        <v>0.9769820030599211</v>
+        <v>0.9792913712950052</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038210703085242</v>
+        <v>1.039444768493073</v>
       </c>
       <c r="J15">
-        <v>1.001494797391346</v>
+        <v>1.004100113943459</v>
       </c>
       <c r="K15">
-        <v>1.016223992276394</v>
+        <v>1.018512724678606</v>
       </c>
       <c r="L15">
-        <v>0.997925926472082</v>
+        <v>1.000293544708733</v>
       </c>
       <c r="M15">
-        <v>0.9922770385469496</v>
+        <v>0.9945405150287158</v>
       </c>
       <c r="N15">
-        <v>1.003992114438995</v>
+        <v>1.008460649807503</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022617211342221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024251772962459</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017409011237208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746396608754657</v>
+        <v>0.9769878077119607</v>
       </c>
       <c r="D16">
-        <v>1.003817142650762</v>
+        <v>1.005798900545165</v>
       </c>
       <c r="E16">
-        <v>0.9856258305078712</v>
+        <v>0.9877039304640399</v>
       </c>
       <c r="F16">
-        <v>0.9810815626527467</v>
+        <v>0.983056875544468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039298130895532</v>
+        <v>1.040347603690319</v>
       </c>
       <c r="J16">
-        <v>1.003816751914679</v>
+        <v>1.006065344730676</v>
       </c>
       <c r="K16">
-        <v>1.018081341535243</v>
+        <v>1.020027865047596</v>
       </c>
       <c r="L16">
-        <v>1.000222100173441</v>
+        <v>1.002261458465543</v>
       </c>
       <c r="M16">
-        <v>0.995763297802709</v>
+        <v>0.9977013335420662</v>
       </c>
       <c r="N16">
-        <v>1.004793662453913</v>
+        <v>1.008778004062964</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023933676383577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02532655765336</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017749683652409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9768741536815909</v>
+        <v>0.9790073210325612</v>
       </c>
       <c r="D17">
-        <v>1.005312290595013</v>
+        <v>1.007091029968109</v>
       </c>
       <c r="E17">
-        <v>0.987408882134606</v>
+        <v>0.9892969024252486</v>
       </c>
       <c r="F17">
-        <v>0.9836142286868893</v>
+        <v>0.9854004391677522</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.03996585902375</v>
+        <v>1.04090859256922</v>
       </c>
       <c r="J17">
-        <v>1.00525097735444</v>
+        <v>1.007296825270928</v>
       </c>
       <c r="K17">
-        <v>1.019227812855417</v>
+        <v>1.020975859684613</v>
       </c>
       <c r="L17">
-        <v>1.001641340701008</v>
+        <v>1.003495234862554</v>
       </c>
       <c r="M17">
-        <v>0.9979157919175881</v>
+        <v>0.9996693873279565</v>
       </c>
       <c r="N17">
-        <v>1.005288748233387</v>
+        <v>1.009014630370245</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024746918819754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025999701352454</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017963538085108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9781542308031488</v>
+        <v>0.9801723670963935</v>
       </c>
       <c r="D18">
-        <v>1.006165042405552</v>
+        <v>1.007832939374382</v>
       </c>
       <c r="E18">
-        <v>0.988429331690663</v>
+        <v>0.9902161418956492</v>
       </c>
       <c r="F18">
-        <v>0.9850685172587195</v>
+        <v>0.9867534259609149</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040344096019966</v>
+        <v>1.041228645031941</v>
       </c>
       <c r="J18">
-        <v>1.006068729800033</v>
+        <v>1.008005947855671</v>
       </c>
       <c r="K18">
-        <v>1.019878201009268</v>
+        <v>1.021517822107688</v>
       </c>
       <c r="L18">
-        <v>1.002450824323439</v>
+        <v>1.004205921963543</v>
       </c>
       <c r="M18">
-        <v>0.9991500630679698</v>
+        <v>1.000804798347931</v>
       </c>
       <c r="N18">
-        <v>1.005568334903118</v>
+        <v>1.009163173115983</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025194958902114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026369946504941</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018084630962379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9785976219793768</v>
+        <v>0.980576700848627</v>
       </c>
       <c r="D19">
-        <v>1.006463880683073</v>
+        <v>1.008094064699294</v>
       </c>
       <c r="E19">
-        <v>0.9887845108018468</v>
+        <v>0.9905368523226066</v>
       </c>
       <c r="F19">
-        <v>0.9855694341685391</v>
+        <v>0.9872200412606793</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040476990994465</v>
+        <v>1.04134175427979</v>
       </c>
       <c r="J19">
-        <v>1.006354784842441</v>
+        <v>1.008255074959563</v>
       </c>
       <c r="K19">
-        <v>1.020108014311692</v>
+        <v>1.02171072959879</v>
       </c>
       <c r="L19">
-        <v>1.002734087836421</v>
+        <v>1.004455523459701</v>
       </c>
       <c r="M19">
-        <v>0.9995760862509979</v>
+        <v>1.001197330996805</v>
       </c>
       <c r="N19">
-        <v>1.005668238037906</v>
+        <v>1.009219802094515</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025363938312001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026513446386414</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018128900500104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.976634746583693</v>
+        <v>0.9787902248847175</v>
       </c>
       <c r="D20">
-        <v>1.005151703162387</v>
+        <v>1.006951679499863</v>
       </c>
       <c r="E20">
-        <v>0.9872175831950298</v>
+        <v>0.9891253151143304</v>
       </c>
       <c r="F20">
-        <v>0.9833431739318197</v>
+        <v>0.9851489971191416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039894264675366</v>
+        <v>1.040848155363657</v>
       </c>
       <c r="J20">
-        <v>1.005097051512443</v>
+        <v>1.007163961606699</v>
       </c>
       <c r="K20">
-        <v>1.019104566940485</v>
+        <v>1.020873383557353</v>
       </c>
       <c r="L20">
-        <v>1.001488982550138</v>
+        <v>1.003362116512895</v>
       </c>
       <c r="M20">
-        <v>0.9976853764231357</v>
+        <v>0.9994581087654825</v>
       </c>
       <c r="N20">
-        <v>1.005235404032474</v>
+        <v>1.008987389850564</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024658421541191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025925762235594</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017940282671687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.970101972601906</v>
+        <v>0.9729615746155549</v>
       </c>
       <c r="D21">
-        <v>1.000787484810034</v>
+        <v>1.003234044328068</v>
       </c>
       <c r="E21">
-        <v>0.9820128873090309</v>
+        <v>0.9845468235739059</v>
       </c>
       <c r="F21">
-        <v>0.9759346925780497</v>
+        <v>0.978360103403363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037933951068257</v>
+        <v>1.03922876415591</v>
       </c>
       <c r="J21">
-        <v>1.000905175287107</v>
+        <v>1.003634933143489</v>
       </c>
       <c r="K21">
-        <v>1.015753953393414</v>
+        <v>1.018154404694309</v>
       </c>
       <c r="L21">
-        <v>0.9973432363457205</v>
+        <v>0.9998269969940672</v>
       </c>
       <c r="M21">
-        <v>0.9913867974017317</v>
+        <v>0.9937633847478887</v>
       </c>
       <c r="N21">
-        <v>1.003790350744697</v>
+        <v>1.008465460936438</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022292642832819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024006934572645</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017332110409062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9658640716172855</v>
+        <v>0.9691861794011636</v>
       </c>
       <c r="D22">
-        <v>0.997956615891965</v>
+        <v>1.000826228031129</v>
       </c>
       <c r="E22">
-        <v>0.9786435432593292</v>
+        <v>0.9815890443444835</v>
       </c>
       <c r="F22">
-        <v>0.9711315064807563</v>
+        <v>0.9739664229877043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036644867514587</v>
+        <v>1.038162586510229</v>
       </c>
       <c r="J22">
-        <v>0.9981792391196249</v>
+        <v>1.001341034106182</v>
       </c>
       <c r="K22">
-        <v>1.013568661595795</v>
+        <v>1.016381334932871</v>
       </c>
       <c r="L22">
-        <v>0.9946502890121627</v>
+        <v>0.9975342667070428</v>
       </c>
       <c r="M22">
-        <v>0.9872973979515463</v>
+        <v>0.9900718735655702</v>
       </c>
       <c r="N22">
-        <v>1.002846844905209</v>
+        <v>1.008111844600693</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020733766344432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022738259423309</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016931372955354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9681070422386043</v>
+        <v>0.9711647820108154</v>
       </c>
       <c r="D23">
-        <v>0.9994488657339182</v>
+        <v>1.002080530966142</v>
       </c>
       <c r="E23">
-        <v>0.9804231608650961</v>
+        <v>0.9831326174962698</v>
       </c>
       <c r="F23">
-        <v>0.9736785968350491</v>
+        <v>0.9762793667976862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03732504813364</v>
+        <v>1.038717122981723</v>
       </c>
       <c r="J23">
-        <v>0.9996174700646744</v>
+        <v>1.002532304852698</v>
       </c>
       <c r="K23">
-        <v>1.01471818376515</v>
+        <v>1.017299025740697</v>
       </c>
       <c r="L23">
-        <v>0.9960706086802086</v>
+        <v>0.998725038532665</v>
       </c>
       <c r="M23">
-        <v>0.9894647780921568</v>
+        <v>0.992011751373717</v>
       </c>
       <c r="N23">
-        <v>1.003341043136625</v>
+        <v>1.008248315633937</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021536745436487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02337637817602</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017135485042105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9767187142402819</v>
+        <v>0.9788677290295817</v>
       </c>
       <c r="D24">
-        <v>1.005198963910137</v>
+        <v>1.006992070503974</v>
       </c>
       <c r="E24">
-        <v>0.9872804675260899</v>
+        <v>0.9891829220280383</v>
       </c>
       <c r="F24">
-        <v>0.98344577809065</v>
+        <v>0.9852456510138322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039913624948985</v>
+        <v>1.040863918781047</v>
       </c>
       <c r="J24">
-        <v>1.00514337923583</v>
+        <v>1.00720423688678</v>
       </c>
       <c r="K24">
-        <v>1.01913539093415</v>
+        <v>1.020897500179261</v>
       </c>
       <c r="L24">
-        <v>1.001534696095555</v>
+        <v>1.003402698461795</v>
       </c>
       <c r="M24">
-        <v>0.9977699778630648</v>
+        <v>0.9995369203891824</v>
       </c>
       <c r="N24">
-        <v>1.005245797160124</v>
+        <v>1.00899048467648</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024652392553863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025912341426461</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017942774143823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986252215141425</v>
+        <v>0.9876760429879355</v>
       </c>
       <c r="D25">
-        <v>1.011584730413437</v>
+        <v>1.012644324815717</v>
       </c>
       <c r="E25">
-        <v>0.9949094170624202</v>
+        <v>0.996177995094672</v>
       </c>
       <c r="F25">
-        <v>0.9942520510820659</v>
+        <v>0.9954125667382463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042719123083273</v>
+        <v>1.043286011256641</v>
       </c>
       <c r="J25">
-        <v>1.011251273252526</v>
+        <v>1.012625396547497</v>
       </c>
       <c r="K25">
-        <v>1.024005831318107</v>
+        <v>1.02504947445924</v>
       </c>
       <c r="L25">
-        <v>1.007587275152328</v>
+        <v>1.008835933935138</v>
       </c>
       <c r="M25">
-        <v>1.006940256741976</v>
+        <v>1.008082516584476</v>
       </c>
       <c r="N25">
-        <v>1.007350596879496</v>
+        <v>1.010416386522669</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028093227233838</v>
+        <v>1.028844832073654</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01888376661895</v>
       </c>
     </row>
   </sheetData>
